--- a/savedFiles/831467583diary.xlsx
+++ b/savedFiles/831467583diary.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Тема Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -606,7 +606,7 @@
     </row>
     <row r="3" ht="18.75" customHeight="true">
       <c r="A3" s="4" t="str">
-        <v>Период: 28.02.2022 — 06.03.2022</v>
+        <v>Период: 11.04.2022 — 17.04.2022</v>
       </c>
       <c r="B3" s="4">
         <v/>
@@ -714,7 +714,7 @@
         <v/>
       </c>
       <c r="C6" s="1" t="str">
-        <v>28.02</v>
+        <v>11.04</v>
       </c>
       <c r="D6" s="1">
         <v/>
@@ -726,7 +726,7 @@
         <v/>
       </c>
       <c r="G6" s="1" t="str">
-        <v>01.03</v>
+        <v>12.04</v>
       </c>
       <c r="H6" s="1">
         <v/>
@@ -738,7 +738,7 @@
         <v/>
       </c>
       <c r="K6" s="1" t="str">
-        <v>02.03</v>
+        <v>13.04</v>
       </c>
       <c r="L6" s="1">
         <v/>
@@ -750,7 +750,7 @@
         <v/>
       </c>
       <c r="O6" s="1" t="str">
-        <v>03.03</v>
+        <v>14.04</v>
       </c>
       <c r="P6" s="1">
         <v/>
@@ -762,7 +762,7 @@
         <v/>
       </c>
       <c r="S6" s="1" t="str">
-        <v>04.03</v>
+        <v>15.04</v>
       </c>
       <c r="T6" s="1">
         <v/>
@@ -774,7 +774,7 @@
         <v/>
       </c>
       <c r="W6" s="1" t="str">
-        <v>05.03</v>
+        <v>16.04</v>
       </c>
       <c r="X6" s="1">
         <v/>
@@ -846,18 +846,18 @@
         <v>
 Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
       </c>
-      <c r="U7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="9" t="str">
-        <v>08:30</v>
-      </c>
-      <c r="W7" s="10" t="str">
-        <v>История</v>
+      <c r="U7" s="8" t="s">
+        <v/>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v/>
       </c>
       <c r="X7" s="10" t="str">
         <v>
-Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
+</v>
       </c>
     </row>
     <row r="8" ht="31.15" customHeight="true">
@@ -926,18 +926,18 @@
         <v>
 Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
       </c>
-      <c r="U8" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" s="9" t="str">
-        <v>09:25</v>
-      </c>
-      <c r="W8" s="10" t="str">
-        <v>Химия</v>
+      <c r="U8" s="8" t="s">
+        <v/>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v/>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v/>
       </c>
       <c r="X8" s="10" t="str">
         <v>
-Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
+</v>
       </c>
     </row>
     <row r="9" ht="31.15" customHeight="true">
@@ -1006,18 +1006,18 @@
         <v>
 Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
       </c>
-      <c r="U9" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="V9" s="9" t="str">
-        <v>10:25</v>
-      </c>
-      <c r="W9" s="10" t="str">
-        <v>Иностранный язык (английский)</v>
+      <c r="U9" s="8" t="s">
+        <v/>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v/>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v/>
       </c>
       <c r="X9" s="10" t="str">
         <v>
-Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
+</v>
       </c>
     </row>
     <row r="10" ht="31.15" customHeight="true">
@@ -1086,18 +1086,18 @@
         <v>
 улица Академика Бакулева 20 , кабинет информатики, каб. 408</v>
       </c>
-      <c r="U10" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="V10" s="9" t="str">
-        <v>11:25</v>
-      </c>
-      <c r="W10" s="10" t="str">
-        <v>Алгебра и начала математического анализа</v>
+      <c r="U10" s="8" t="s">
+        <v/>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v/>
       </c>
       <c r="X10" s="10" t="str">
         <v>
-Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
+</v>
       </c>
     </row>
     <row r="11" ht="31.15" customHeight="true">
@@ -1166,18 +1166,18 @@
         <v>
 Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
       </c>
-      <c r="U11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" s="9" t="str">
-        <v>12:30</v>
-      </c>
-      <c r="W11" s="10" t="str">
-        <v>Физика</v>
+      <c r="U11" s="8" t="s">
+        <v/>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v/>
       </c>
       <c r="X11" s="10" t="str">
         <v>
-Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
+</v>
       </c>
     </row>
     <row r="12" ht="31.15" customHeight="true">
@@ -1246,18 +1246,18 @@
         <v>
 Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
       </c>
-      <c r="U12" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="V12" s="9" t="str">
-        <v>13:45</v>
-      </c>
-      <c r="W12" s="10" t="str">
-        <v>Литература</v>
+      <c r="U12" s="8" t="s">
+        <v/>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v/>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v/>
       </c>
       <c r="X12" s="10" t="str">
         <v>
-Ленинский проспект 131 корп. 4 , Заместитель директора. Канцелярия, каб. 101</v>
+</v>
       </c>
     </row>
     <row r="13" ht="31.15" customHeight="true">
